--- a/public/user4/kiaanak2/kiaanak2.xlsx
+++ b/public/user4/kiaanak2/kiaanak2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>REKAPITULASI LAPORAN PWS-KIA (ANAK)</t>
   </si>
@@ -88,31 +88,7 @@
     <t>%</t>
   </si>
   <si>
-    <t>Siwi</t>
-  </si>
-  <si>
-    <t>Nunang Selatan</t>
-  </si>
-  <si>
-    <t>Juna</t>
-  </si>
-  <si>
-    <t>Setuta Timur</t>
-  </si>
-  <si>
-    <t>Setuta Barat</t>
-  </si>
-  <si>
-    <t>Liwung Satu</t>
-  </si>
-  <si>
-    <t>Liwung Dua</t>
-  </si>
-  <si>
-    <t>Batu Belek</t>
-  </si>
-  <si>
-    <t>Biletawah</t>
+    <t> </t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -139,7 +115,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -173,12 +149,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -315,7 +285,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -380,10 +350,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -404,15 +370,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -493,17 +459,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14:B22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N17" activeCellId="0" sqref="N17:O68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.72222222222222"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.8555555555556"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.5851851851852"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2888888888889"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -811,9 +777,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="B14" s="11"/>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
       <c r="E14" s="12"/>
@@ -844,9 +808,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="B15" s="11"/>
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
       <c r="E15" s="12"/>
@@ -854,11 +816,11 @@
       <c r="G15" s="14"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="10" t="n">
+      <c r="J15" s="12" t="n">
         <f aca="false">I15+H15</f>
         <v>0</v>
       </c>
-      <c r="K15" s="15" t="e">
+      <c r="K15" s="14" t="e">
         <f aca="false">J15/D15*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -877,9 +839,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
-      <c r="B16" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
       <c r="E16" s="12"/>
@@ -887,11 +847,11 @@
       <c r="G16" s="14"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="10" t="n">
+      <c r="J16" s="12" t="n">
         <f aca="false">I16+H16</f>
         <v>0</v>
       </c>
-      <c r="K16" s="15" t="e">
+      <c r="K16" s="14" t="e">
         <f aca="false">J16/D16*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -910,9 +870,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="B17" s="11"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
       <c r="E17" s="12"/>
@@ -920,11 +878,11 @@
       <c r="G17" s="14"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="10" t="n">
+      <c r="J17" s="12" t="n">
         <f aca="false">I17+H17</f>
         <v>0</v>
       </c>
-      <c r="K17" s="15" t="e">
+      <c r="K17" s="14" t="e">
         <f aca="false">J17/D17*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -943,9 +901,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10"/>
-      <c r="B18" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="13"/>
       <c r="E18" s="12"/>
@@ -953,11 +909,11 @@
       <c r="G18" s="14"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="10" t="n">
+      <c r="J18" s="12" t="n">
         <f aca="false">I18+H18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="15" t="e">
+      <c r="K18" s="14" t="e">
         <f aca="false">J18/D18*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -976,9 +932,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="10"/>
-      <c r="B19" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="B19" s="11"/>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
       <c r="E19" s="12"/>
@@ -986,11 +940,11 @@
       <c r="G19" s="14"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="10" t="n">
+      <c r="J19" s="12" t="n">
         <f aca="false">I19+H19</f>
         <v>0</v>
       </c>
-      <c r="K19" s="15" t="e">
+      <c r="K19" s="14" t="e">
         <f aca="false">J19/D19*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -1009,9 +963,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
-      <c r="B20" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
       <c r="E20" s="12"/>
@@ -1019,11 +971,11 @@
       <c r="G20" s="14"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="10" t="n">
+      <c r="J20" s="12" t="n">
         <f aca="false">I20+H20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="15" t="e">
+      <c r="K20" s="14" t="e">
         <f aca="false">J20/D20*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -1042,9 +994,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
-      <c r="B21" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="13"/>
       <c r="E21" s="12"/>
@@ -1052,11 +1002,11 @@
       <c r="G21" s="14"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
-      <c r="J21" s="10" t="n">
+      <c r="J21" s="12" t="n">
         <f aca="false">I21+H21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="15" t="e">
+      <c r="K21" s="14" t="e">
         <f aca="false">J21/D21*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -1075,9 +1025,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
-      <c r="B22" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="13"/>
       <c r="E22" s="12"/>
@@ -1085,11 +1033,11 @@
       <c r="G22" s="14"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="10" t="n">
+      <c r="J22" s="12" t="n">
         <f aca="false">I22+H22</f>
         <v>0</v>
       </c>
-      <c r="K22" s="15" t="e">
+      <c r="K22" s="14" t="e">
         <f aca="false">J22/D22*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -1116,11 +1064,11 @@
       <c r="G23" s="14"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
-      <c r="J23" s="10" t="n">
+      <c r="J23" s="12" t="n">
         <f aca="false">I23+H23</f>
         <v>0</v>
       </c>
-      <c r="K23" s="15" t="e">
+      <c r="K23" s="14" t="e">
         <f aca="false">J23/D23*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -1147,11 +1095,11 @@
       <c r="G24" s="14"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
-      <c r="J24" s="10" t="n">
+      <c r="J24" s="12" t="n">
         <f aca="false">I24+H24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="15" t="e">
+      <c r="K24" s="14" t="e">
         <f aca="false">J24/D24*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -1178,11 +1126,11 @@
       <c r="G25" s="14"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="10" t="n">
+      <c r="J25" s="12" t="n">
         <f aca="false">I25+H25</f>
         <v>0</v>
       </c>
-      <c r="K25" s="15" t="e">
+      <c r="K25" s="14" t="e">
         <f aca="false">J25/D25*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -1209,11 +1157,11 @@
       <c r="G26" s="14"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="10" t="n">
+      <c r="J26" s="12" t="n">
         <f aca="false">I26+H26</f>
         <v>0</v>
       </c>
-      <c r="K26" s="15" t="e">
+      <c r="K26" s="14" t="e">
         <f aca="false">J26/D26*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -1240,11 +1188,11 @@
       <c r="G27" s="14"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
-      <c r="J27" s="10" t="n">
+      <c r="J27" s="12" t="n">
         <f aca="false">I27+H27</f>
         <v>0</v>
       </c>
-      <c r="K27" s="15" t="e">
+      <c r="K27" s="14" t="e">
         <f aca="false">J27/D27*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -1271,11 +1219,11 @@
       <c r="G28" s="14"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
-      <c r="J28" s="10" t="n">
+      <c r="J28" s="12" t="n">
         <f aca="false">I28+H28</f>
         <v>0</v>
       </c>
-      <c r="K28" s="15" t="e">
+      <c r="K28" s="14" t="e">
         <f aca="false">J28/D28*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -1302,11 +1250,11 @@
       <c r="G29" s="14"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="10" t="n">
+      <c r="J29" s="12" t="n">
         <f aca="false">I29+H29</f>
         <v>0</v>
       </c>
-      <c r="K29" s="15" t="e">
+      <c r="K29" s="14" t="e">
         <f aca="false">J29/D29*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -1325,7 +1273,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10"/>
-      <c r="B30" s="16"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="12"/>
@@ -1333,11 +1281,11 @@
       <c r="G30" s="14"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
-      <c r="J30" s="10" t="n">
+      <c r="J30" s="12" t="n">
         <f aca="false">I30+H30</f>
         <v>0</v>
       </c>
-      <c r="K30" s="15" t="e">
+      <c r="K30" s="14" t="e">
         <f aca="false">J30/D30*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -1356,7 +1304,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="10"/>
-      <c r="B31" s="16"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="12"/>
       <c r="D31" s="13"/>
       <c r="E31" s="12"/>
@@ -1364,11 +1312,11 @@
       <c r="G31" s="14"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
-      <c r="J31" s="10" t="n">
+      <c r="J31" s="12" t="n">
         <f aca="false">I31+H31</f>
         <v>0</v>
       </c>
-      <c r="K31" s="15" t="e">
+      <c r="K31" s="14" t="e">
         <f aca="false">J31/D31*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -1387,7 +1335,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="10"/>
-      <c r="B32" s="16"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="12"/>
       <c r="D32" s="13"/>
       <c r="E32" s="12"/>
@@ -1395,11 +1343,11 @@
       <c r="G32" s="14"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
-      <c r="J32" s="10" t="n">
+      <c r="J32" s="12" t="n">
         <f aca="false">I32+H32</f>
         <v>0</v>
       </c>
-      <c r="K32" s="15" t="e">
+      <c r="K32" s="14" t="e">
         <f aca="false">J32/D32*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -1418,7 +1366,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10"/>
-      <c r="B33" s="16"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="12"/>
       <c r="D33" s="13"/>
       <c r="E33" s="12"/>
@@ -1426,11 +1374,11 @@
       <c r="G33" s="14"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
-      <c r="J33" s="10" t="n">
+      <c r="J33" s="12" t="n">
         <f aca="false">I33+H33</f>
         <v>0</v>
       </c>
-      <c r="K33" s="15" t="e">
+      <c r="K33" s="14" t="e">
         <f aca="false">J33/D33*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -1449,7 +1397,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10"/>
-      <c r="B34" s="16"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="12"/>
       <c r="D34" s="13"/>
       <c r="E34" s="12"/>
@@ -1457,11 +1405,11 @@
       <c r="G34" s="14"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
-      <c r="J34" s="10" t="n">
+      <c r="J34" s="12" t="n">
         <f aca="false">I34+H34</f>
         <v>0</v>
       </c>
-      <c r="K34" s="15" t="e">
+      <c r="K34" s="14" t="e">
         <f aca="false">J34/D34*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -1480,7 +1428,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="10"/>
-      <c r="B35" s="16"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="12"/>
       <c r="D35" s="13"/>
       <c r="E35" s="12"/>
@@ -1488,11 +1436,11 @@
       <c r="G35" s="14"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
-      <c r="J35" s="10" t="n">
+      <c r="J35" s="12" t="n">
         <f aca="false">I35+H35</f>
         <v>0</v>
       </c>
-      <c r="K35" s="15" t="e">
+      <c r="K35" s="14" t="e">
         <f aca="false">J35/D35*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -1519,11 +1467,11 @@
       <c r="G36" s="14"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
-      <c r="J36" s="10" t="n">
+      <c r="J36" s="12" t="n">
         <f aca="false">I36+H36</f>
         <v>0</v>
       </c>
-      <c r="K36" s="15" t="e">
+      <c r="K36" s="14" t="e">
         <f aca="false">J36/D36*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -1550,11 +1498,11 @@
       <c r="G37" s="14"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
-      <c r="J37" s="10" t="n">
+      <c r="J37" s="12" t="n">
         <f aca="false">I37+H37</f>
         <v>0</v>
       </c>
-      <c r="K37" s="15" t="e">
+      <c r="K37" s="14" t="e">
         <f aca="false">J37/D37*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -1573,7 +1521,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="10"/>
-      <c r="B38" s="17"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="12"/>
       <c r="D38" s="13"/>
       <c r="E38" s="12"/>
@@ -1581,11 +1529,11 @@
       <c r="G38" s="14"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
-      <c r="J38" s="10" t="n">
+      <c r="J38" s="12" t="n">
         <f aca="false">I38+H38</f>
         <v>0</v>
       </c>
-      <c r="K38" s="15" t="e">
+      <c r="K38" s="14" t="e">
         <f aca="false">J38/D38*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -1604,7 +1552,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10"/>
-      <c r="B39" s="18"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="12"/>
       <c r="D39" s="13"/>
       <c r="E39" s="12"/>
@@ -1634,46 +1582,29 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20" t="n">
-        <f aca="false">SUM(C14:C39)</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="13" t="n">
-        <f aca="false">0.15*C40</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="20" t="n">
-        <f aca="false">SUM(E14:E39)</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="15"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="14"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20" t="n">
-        <f aca="false">SUM(I14:I39)</f>
-        <v>0</v>
-      </c>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
       <c r="J40" s="12" t="n">
         <f aca="false">I40+H40</f>
         <v>0</v>
       </c>
-      <c r="K40" s="15" t="e">
+      <c r="K40" s="14" t="e">
         <f aca="false">J40/D40*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20" t="n">
-        <f aca="false">SUM(O14:O39)</f>
-        <v>0</v>
-      </c>
-      <c r="P40" s="20" t="n">
-        <f aca="false">SUM(P14:P39)</f>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10" t="n">
+        <f aca="false">O40+N40</f>
         <v>0</v>
       </c>
       <c r="Q40" s="15" t="e">
@@ -1681,40 +1612,970 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J42" s="21"/>
-      <c r="M42" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N42" s="23"/>
-    </row>
-    <row r="43" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M43" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="N43" s="23"/>
-    </row>
-    <row r="44" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M44" s="22"/>
-      <c r="N44" s="23"/>
-    </row>
-    <row r="45" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M45" s="22"/>
-      <c r="N45" s="23"/>
-    </row>
-    <row r="46" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M46" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="N46" s="23"/>
-      <c r="O46" s="2"/>
-    </row>
-    <row r="47" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M47" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="N47" s="23"/>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="12" t="n">
+        <f aca="false">I41+H41</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="14" t="e">
+        <f aca="false">J41/D41*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10" t="n">
+        <f aca="false">O41+N41</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="15" t="e">
+        <f aca="false">P41/D41*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="12" t="n">
+        <f aca="false">I42+H42</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="14" t="e">
+        <f aca="false">J42/D42*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10" t="n">
+        <f aca="false">O42+N42</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="15" t="e">
+        <f aca="false">P42/D42*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="12" t="n">
+        <f aca="false">I43+H43</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="14" t="e">
+        <f aca="false">J43/D43*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10" t="n">
+        <f aca="false">O43+N43</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="15" t="e">
+        <f aca="false">P43/D43*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="12" t="n">
+        <f aca="false">I44+H44</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="14" t="e">
+        <f aca="false">J44/D44*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10" t="n">
+        <f aca="false">O44+N44</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="15" t="e">
+        <f aca="false">P44/D44*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="12" t="n">
+        <f aca="false">I45+H45</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="14" t="e">
+        <f aca="false">J45/D45*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10" t="n">
+        <f aca="false">O45+N45</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="15" t="e">
+        <f aca="false">P45/D45*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="12" t="n">
+        <f aca="false">I46+H46</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="14" t="e">
+        <f aca="false">J46/D46*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10" t="n">
+        <f aca="false">O46+N46</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="15" t="e">
+        <f aca="false">P46/D46*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="12" t="n">
+        <f aca="false">I47+H47</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="14" t="e">
+        <f aca="false">J47/D47*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10" t="n">
+        <f aca="false">O47+N47</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="15" t="e">
+        <f aca="false">P47/D47*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="12" t="n">
+        <f aca="false">I48+H48</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="14" t="e">
+        <f aca="false">J48/D48*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10" t="n">
+        <f aca="false">O48+N48</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="15" t="e">
+        <f aca="false">P48/D48*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="12" t="n">
+        <f aca="false">I49+H49</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="14" t="e">
+        <f aca="false">J49/D49*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10" t="n">
+        <f aca="false">O49+N49</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="15" t="e">
+        <f aca="false">P49/D49*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="12" t="n">
+        <f aca="false">I50+H50</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="14" t="e">
+        <f aca="false">J50/D50*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10" t="n">
+        <f aca="false">O50+N50</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="15" t="e">
+        <f aca="false">P50/D50*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="12" t="n">
+        <f aca="false">I51+H51</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="14" t="e">
+        <f aca="false">J51/D51*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10" t="n">
+        <f aca="false">O51+N51</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="15" t="e">
+        <f aca="false">P51/D51*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="12" t="n">
+        <f aca="false">I52+H52</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="14" t="e">
+        <f aca="false">J52/D52*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10" t="n">
+        <f aca="false">O52+N52</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="15" t="e">
+        <f aca="false">P52/D52*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="12" t="n">
+        <f aca="false">I53+H53</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="14" t="e">
+        <f aca="false">J53/D53*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10" t="n">
+        <f aca="false">O53+N53</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="15" t="e">
+        <f aca="false">P53/D53*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="12" t="n">
+        <f aca="false">I54+H54</f>
+        <v>0</v>
+      </c>
+      <c r="K54" s="14" t="e">
+        <f aca="false">J54/D54*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10" t="n">
+        <f aca="false">O54+N54</f>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="15" t="e">
+        <f aca="false">P54/D54*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="10"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="12" t="n">
+        <f aca="false">I55+H55</f>
+        <v>0</v>
+      </c>
+      <c r="K55" s="14" t="e">
+        <f aca="false">J55/D55*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10" t="n">
+        <f aca="false">O55+N55</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="15" t="e">
+        <f aca="false">P55/D55*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="10"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10" t="n">
+        <f aca="false">I56+H56</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="15" t="e">
+        <f aca="false">J56/D56*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10" t="n">
+        <f aca="false">O56+N56</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="15" t="e">
+        <f aca="false">P56/D56*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="10"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10" t="n">
+        <f aca="false">I57+H57</f>
+        <v>0</v>
+      </c>
+      <c r="K57" s="15" t="e">
+        <f aca="false">J57/D57*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10" t="n">
+        <f aca="false">O57+N57</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="15" t="e">
+        <f aca="false">P57/D57*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="10"/>
+      <c r="B58" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10" t="n">
+        <f aca="false">I58+H58</f>
+        <v>0</v>
+      </c>
+      <c r="K58" s="15" t="e">
+        <f aca="false">J58/D58*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10" t="n">
+        <f aca="false">O58+N58</f>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="15" t="e">
+        <f aca="false">P58/D58*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="10"/>
+      <c r="B59" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10" t="n">
+        <f aca="false">I59+H59</f>
+        <v>0</v>
+      </c>
+      <c r="K59" s="15" t="e">
+        <f aca="false">J59/D59*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10" t="n">
+        <f aca="false">O59+N59</f>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="15" t="e">
+        <f aca="false">P59/D59*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="10"/>
+      <c r="B60" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10" t="n">
+        <f aca="false">I60+H60</f>
+        <v>0</v>
+      </c>
+      <c r="K60" s="15" t="e">
+        <f aca="false">J60/D60*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10" t="n">
+        <f aca="false">O60+N60</f>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="15" t="e">
+        <f aca="false">P60/D60*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="10"/>
+      <c r="B61" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10" t="n">
+        <f aca="false">I61+H61</f>
+        <v>0</v>
+      </c>
+      <c r="K61" s="15" t="e">
+        <f aca="false">J61/D61*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10" t="n">
+        <f aca="false">O61+N61</f>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="15" t="e">
+        <f aca="false">P61/D61*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="10"/>
+      <c r="B62" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10" t="n">
+        <f aca="false">I62+H62</f>
+        <v>0</v>
+      </c>
+      <c r="K62" s="15" t="e">
+        <f aca="false">J62/D62*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10" t="n">
+        <f aca="false">O62+N62</f>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="15" t="e">
+        <f aca="false">P62/D62*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="10"/>
+      <c r="B63" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10" t="n">
+        <f aca="false">I63+H63</f>
+        <v>0</v>
+      </c>
+      <c r="K63" s="15" t="e">
+        <f aca="false">J63/D63*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10" t="n">
+        <f aca="false">O63+N63</f>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="15" t="e">
+        <f aca="false">P63/D63*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="10"/>
+      <c r="B64" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10" t="n">
+        <f aca="false">I64+H64</f>
+        <v>0</v>
+      </c>
+      <c r="K64" s="15" t="e">
+        <f aca="false">J64/D64*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10" t="n">
+        <f aca="false">O64+N64</f>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="15" t="e">
+        <f aca="false">P64/D64*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="10"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10" t="n">
+        <f aca="false">I65+H65</f>
+        <v>0</v>
+      </c>
+      <c r="K65" s="15" t="e">
+        <f aca="false">J65/D65*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10" t="n">
+        <f aca="false">O65+N65</f>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="15" t="e">
+        <f aca="false">P65/D65*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="10"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10" t="n">
+        <f aca="false">I66+H66</f>
+        <v>0</v>
+      </c>
+      <c r="K66" s="15" t="e">
+        <f aca="false">J66/D66*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10" t="n">
+        <f aca="false">O66+N66</f>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="15" t="e">
+        <f aca="false">P66/D66*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="10"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10" t="n">
+        <f aca="false">I67+H67</f>
+        <v>0</v>
+      </c>
+      <c r="K67" s="15" t="e">
+        <f aca="false">J67/D67*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10" t="n">
+        <f aca="false">O67+N67</f>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="15" t="e">
+        <f aca="false">P67/D67*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="10"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="12" t="n">
+        <f aca="false">I68+H68</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="14" t="e">
+        <f aca="false">J68/D68*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10" t="n">
+        <f aca="false">O68+N68</f>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="15" t="e">
+        <f aca="false">P68/D68*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="18"/>
+      <c r="C69" s="19" t="n">
+        <f aca="false">SUM(C14:C68)</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="13" t="n">
+        <f aca="false">0.15*C69</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="19" t="n">
+        <f aca="false">SUM(E14:E68)</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="15"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19" t="n">
+        <f aca="false">SUM(I14:I68)</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="12" t="n">
+        <f aca="false">I69+H69</f>
+        <v>0</v>
+      </c>
+      <c r="K69" s="15" t="e">
+        <f aca="false">J69/D69*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19" t="n">
+        <f aca="false">SUM(O14:O68)</f>
+        <v>0</v>
+      </c>
+      <c r="P69" s="19" t="n">
+        <f aca="false">SUM(P14:P68)</f>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="15" t="e">
+        <f aca="false">P69/D69*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J71" s="20"/>
+      <c r="M71" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N71" s="22"/>
+    </row>
+    <row r="72" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M72" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N72" s="22"/>
+    </row>
+    <row r="73" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M73" s="21"/>
+      <c r="N73" s="22"/>
+    </row>
+    <row r="74" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M74" s="21"/>
+      <c r="N74" s="22"/>
+    </row>
+    <row r="75" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M75" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N75" s="22"/>
+      <c r="O75" s="2"/>
+    </row>
+    <row r="76" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M76" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N76" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -1742,7 +2603,7 @@
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.5"/>
